--- a/Hardware/Satelite/PCB_A/BOM_A.xlsx
+++ b/Hardware/Satelite/PCB_A/BOM_A.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repos\CanSat\Hardware\Satelite\PCB_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys32\home\tmax4\esp\Hardware\Satelite\PCB_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF9054-6C78-4C94-98E8-44B71B9409FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9463"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB_A" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>References</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Reference(s)</t>
   </si>
   <si>
     <t>Value</t>
@@ -39,31 +34,28 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Quantity Per PCB</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
-    <t>Unpolarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Small</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>C_0402_1005Metric</t>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
     <t>GCM155R71C104KA55D</t>
   </si>
   <si>
-    <t>C_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>C7 C8</t>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LMK107B7105MA-T</t>
   </si>
   <si>
     <t>15pF</t>
@@ -72,16 +64,70 @@
     <t>C0402C150J5GACTU</t>
   </si>
   <si>
-    <t>C1 C3</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>0.8pF</t>
+  </si>
+  <si>
+    <t>GRM1555C2AR80BA01D</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>C2012X7R1A106M125AC</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>GCM1555C1H470JA16J</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>GRM1555C1H120GA01D</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>3.3pF</t>
+  </si>
+  <si>
+    <t>GJM1555C1H3R3DB01D</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>7.5pF</t>
+  </si>
+  <si>
+    <t>GCM1555C1H7R5DA16D</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>n.a</t>
   </si>
   <si>
     <t>D1</t>
@@ -90,46 +136,58 @@
     <t>Rojo</t>
   </si>
   <si>
-    <t>LED_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+    <t>LED_SMD:LED_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
   </si>
   <si>
     <t>150060RS75000</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>Verde</t>
   </si>
   <si>
-    <t>RF Connectors / Coaxial Connectors U.FL Straight Surface Mount Jack</t>
+    <t>150060VS75000</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>BaterÃ­a LiPo (Soldada)</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
   <si>
     <t>CONUFL001-SMD</t>
   </si>
   <si>
-    <t>J2</t>
+    <t>SamacSys_Parts:CONUFL001-SMD</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Servo Globo</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J4</t>
   </si>
   <si>
     <t>Conector_PCB_A-B</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x03</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>Servo Globo</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+    <t>AXTEC:Conector_PCB_A-B</t>
+  </si>
+  <si>
+    <t>22-28-5034</t>
+  </si>
+  <si>
+    <t>22-28-4041</t>
   </si>
   <si>
     <t>J5</t>
@@ -138,139 +196,259 @@
     <t>Servo ParacaÃ­das</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>Jumper:SolderJumper-2_P1.3mm_Open_RoundedPad1.0x1.5mm</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>12nH</t>
-  </si>
-  <si>
-    <t>L_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>L-07C12NJV6</t>
+    <t>Bead</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>BLM15HG102SN1D</t>
+  </si>
+  <si>
+    <t>10nH</t>
+  </si>
+  <si>
+    <t>LQG15HN10NH02D</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>1.5nH</t>
+  </si>
+  <si>
+    <t>LQG15HS1N5S02D</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>22nH</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>LQW18AN22NJ10D</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>7.5nH</t>
+  </si>
+  <si>
+    <t>LQW15AN7N5G00D</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>2.9nH</t>
+  </si>
+  <si>
+    <t>LQW15AN2N9B00D</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>9.1nH</t>
+  </si>
+  <si>
+    <t>LQW15AN9N1G00D</t>
   </si>
   <si>
     <t>Spacer</t>
   </si>
   <si>
-    <t>M1 M2 M3</t>
-  </si>
-  <si>
-    <t>Empty_Footprint</t>
+    <t>AXTEC:Empty_Footprint</t>
   </si>
   <si>
     <t>R30-3011002</t>
   </si>
   <si>
-    <t>MOSFET Small-signal MOSFET Vdss= -12V, ID= -6A</t>
+    <t>MH1</t>
+  </si>
+  <si>
+    <t>MH_CanSat</t>
+  </si>
+  <si>
+    <t>AXTEC:MH_CanSat</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>SSM3J338R,LF</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SSM3J332RLFT</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R9 R10</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>RC0402JR-070RL</t>
-  </si>
-  <si>
-    <t>R3 R4 R5 R6 R7</t>
+    <t>SamacSys_Parts:SSM3J332RLFT</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>BC817</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>BC817-16LT1G</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>RC0603JR-071KL</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
     <t>RC0603JR-0710KL</t>
   </si>
   <si>
-    <t>R1 R2</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>RC0603JR-071KL</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
     <t>56k</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
     <t>RC0402FR-0756KL</t>
   </si>
   <si>
-    <t>Slide Switches SPDT RA SLIDE PC MNT</t>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t>RC0402FR-073K3L</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710RL</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>2.7k</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K7L</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>47R</t>
+  </si>
+  <si>
+    <t>RC0402FR-0747RL</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
   <si>
     <t>500SSP1S1M6QEA</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Signal Conditioning 915MHz BALUN/FILTER</t>
+    <t>SamacSys_Parts:500SSP1S1M6QEA</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>A2235-H</t>
+  </si>
+  <si>
+    <t>AXTEC:A2235-H</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>CC1101RGP</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:QFN50P400X400X100-21N-D</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
   <si>
     <t>0915BM15A0001E</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>GPS Modules SiRFStarIV GPS receiver SMT ROM mod</t>
-  </si>
-  <si>
-    <t>A2235-H</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>Texas Instruments CC1101RGP, RF Transceiver IC Triple Band 1.8  3.6 V 20-Pin QFN</t>
-  </si>
-  <si>
-    <t>CC1101RGP</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>QFN50P400X400X100-21N-D</t>
-  </si>
-  <si>
-    <t>Four pin crystal, GND on pins 2 and 4</t>
-  </si>
-  <si>
-    <t>Crystal_GND24</t>
+    <t>SamacSys_Parts:0915BM15A0001E</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>AP9211SA-AF-HAC-7</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:AP9211SAACHAC7</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>B39921B3588U410</t>
+  </si>
+  <si>
+    <t>AXTEC:B39921B3588U410</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>CC1190</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:Texas_S-PVQFN-N16_EP2.7x2.7mm</t>
+  </si>
+  <si>
+    <t>CC1190RGVR</t>
   </si>
   <si>
     <t>Y1</t>
@@ -279,67 +457,49 @@
     <t>26 MHz</t>
   </si>
   <si>
-    <t>Crystal_SMD_2520-4Pin_2.5x2.0mm</t>
+    <t>Crystal:Crystal_SMD_2520-4Pin_2.5x2.0mm</t>
   </si>
   <si>
     <t>FA-20H 26.0000MF12V-W</t>
   </si>
   <si>
-    <t>LMK107B7105MA-T</t>
-  </si>
-  <si>
-    <t>C2 C4 C5 C6 C9 C10 C11 C12</t>
-  </si>
-  <si>
-    <t>22-28-5034</t>
-  </si>
-  <si>
-    <t>22-28-4041</t>
-  </si>
-  <si>
-    <t>150060VS75000</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric_Pad1.30x3.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>0ZCG0150FF2C</t>
-  </si>
-  <si>
-    <t>0.8A Ic, 45V Vce, NPN Transistor, SOT-23</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>BC817</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>BC817-16LT1G</t>
+    <t>C1, C2, C4, C5, C6, C9, C10, C11, C12</t>
+  </si>
+  <si>
+    <t>C7, C8, C16, C17</t>
+  </si>
+  <si>
+    <t>C19, C20</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>L2, L3</t>
+  </si>
+  <si>
+    <t>M1, M2, M3</t>
+  </si>
+  <si>
+    <t>R1, R2, R11, R12</t>
+  </si>
+  <si>
+    <t>R3, R4, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>Antena 915 MHz</t>
+  </si>
+  <si>
+    <t>W3312B0100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -795,35 +955,31 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -871,11 +1027,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -889,19 +1041,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Component"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Part"/>
-    <tableColumn id="4" name="References"/>
-    <tableColumn id="5" name="Value"/>
-    <tableColumn id="6" name="Footprint"/>
-    <tableColumn id="7" name="Quantity Per PCB"/>
-    <tableColumn id="8" name="Manufacturer Part Number" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F40F29F9-DB53-4DC2-8214-9A7929D1BF97}" name="Tabla1" displayName="Tabla1" ref="A1:E50" totalsRowShown="0">
+  <autoFilter ref="A1:E50" xr:uid="{5DBC1E09-6BA4-4FCC-9452-A5874A10B237}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2DDA4036-29EA-4CD7-8D71-464EBD6FBF70}" name="Qty"/>
+    <tableColumn id="2" xr3:uid="{CDC14B66-67CE-4DCA-8072-DF54A5FD40A4}" name="Reference(s)"/>
+    <tableColumn id="3" xr3:uid="{AC159541-55D2-42BD-87B9-E75BCFC516ED}" name="Value"/>
+    <tableColumn id="4" xr3:uid="{5656FE77-9053-4F78-A19D-32E5226553CB}" name="Footprint"/>
+    <tableColumn id="5" xr3:uid="{F0FF8890-B74D-4AA4-9B06-0D817CD91831}" name="Manufacturer Part Number"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -922,7 +1071,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -934,7 +1083,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -981,6 +1130,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1016,6 +1182,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1167,25 +1350,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.4609375" customWidth="1"/>
-    <col min="2" max="2" width="22.69140625" customWidth="1"/>
-    <col min="4" max="4" width="16.921875" customWidth="1"/>
-    <col min="5" max="5" width="17.53515625" customWidth="1"/>
-    <col min="6" max="6" width="48.4609375" customWidth="1"/>
-    <col min="7" max="7" width="16.69140625" customWidth="1"/>
-    <col min="8" max="8" width="40.3828125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,45 +1383,27 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1248,613 +1412,790 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
         <v>885012005046</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>61300311121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>61300311121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="G15">
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
         <v>100</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D35" t="s">
         <v>103</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="E35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="1"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39">
+        <v>330</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
